--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/dev/reproducible_fair_neuro_ds_template/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E5314-6196-AA49-A95E-270ED6C9EB5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55144DA-A81B-E84A-BC79-237350790A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="35080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="21140" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>gupi</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>PbtO2</t>
+  </si>
+  <si>
+    <t>MAP</t>
   </si>
 </sst>
 </file>
@@ -67,8 +70,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -383,15 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,1691 +413,2616 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>44197.416666666664</v>
+      </c>
       <c r="C2">
-        <v>7.4</v>
+        <v>3.7994025580052</v>
       </c>
       <c r="D2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.770923911428898</v>
+      </c>
+      <c r="E2" s="2">
+        <v>108.586327962396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>44197.420138888891</v>
+      </c>
       <c r="C3">
-        <v>8</v>
+        <v>9.1482943178418594</v>
       </c>
       <c r="D3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.049183780600799</v>
+      </c>
+      <c r="E3" s="2">
+        <v>104.931140602547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" s="1">
+        <v>44197.423611168982</v>
+      </c>
       <c r="C4">
-        <v>12.6</v>
+        <v>5.7961403312944002</v>
       </c>
       <c r="D4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.802643898033899</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88.545302310006207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" s="1">
+        <v>44197.427083449074</v>
+      </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>15.4460740585926</v>
       </c>
       <c r="D5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.7232729048730802</v>
+      </c>
+      <c r="E5" s="2">
+        <v>94.347611533856593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="B6" s="1">
+        <v>44197.430555729166</v>
+      </c>
       <c r="C6">
-        <v>14.3</v>
+        <v>14.109875093622801</v>
       </c>
       <c r="D6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21.2631855419156</v>
+      </c>
+      <c r="E6" s="2">
+        <v>104.55411450526999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7" s="1">
+        <v>44197.434028009258</v>
+      </c>
       <c r="C7">
-        <v>14.9</v>
+        <v>13.7021207752015</v>
       </c>
       <c r="D7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.937055599922601</v>
+      </c>
+      <c r="E7" s="2">
+        <v>116.09110747898001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8" s="1">
+        <v>44197.43750028935</v>
+      </c>
       <c r="C8">
-        <v>8.6</v>
+        <v>8.8101304234431908</v>
       </c>
       <c r="D8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.999050481347297</v>
+      </c>
+      <c r="E8" s="2">
+        <v>118.38260385575499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="B9" s="1">
+        <v>44197.440972569442</v>
+      </c>
       <c r="C9">
-        <v>13.8</v>
+        <v>0.55068153521902896</v>
       </c>
       <c r="D9">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.061477904313499</v>
+      </c>
+      <c r="E9" s="2">
+        <v>105.99908933432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
+      <c r="B10" s="1">
+        <v>44197.444444849534</v>
+      </c>
       <c r="C10">
-        <v>20.100000000000001</v>
+        <v>8.3089971136359893</v>
       </c>
       <c r="D10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.814970285402101</v>
+      </c>
+      <c r="E10" s="2">
+        <v>93.689889214938802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="B11" s="1">
+        <v>44197.447917129626</v>
+      </c>
       <c r="C11">
-        <v>8.6</v>
+        <v>18.303401107771698</v>
       </c>
       <c r="D11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.2484557909616</v>
+      </c>
+      <c r="E11" s="2">
+        <v>97.615915253119695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
+      <c r="B12" s="1">
+        <v>44197.451389409725</v>
+      </c>
       <c r="C12">
-        <v>6.9</v>
+        <v>2.0400442423038498</v>
       </c>
       <c r="D12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21.595805162038701</v>
+      </c>
+      <c r="E12" s="2">
+        <v>68.531790300384799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13" s="1">
+        <v>44197.454861689817</v>
+      </c>
       <c r="C13">
-        <v>9.6999999999999993</v>
+        <v>9.5412437571618192</v>
       </c>
       <c r="D13">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.822170873446101</v>
+      </c>
+      <c r="E13" s="2">
+        <v>98.245951462963106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="B14" s="1">
+        <v>44197.458333969909</v>
+      </c>
       <c r="C14">
-        <v>9.1999999999999993</v>
+        <v>8.1588173482786193</v>
       </c>
       <c r="D14">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.486384955443398</v>
+      </c>
+      <c r="E14" s="2">
+        <v>83.407892128655007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="B15" s="1">
+        <v>44197.461806250001</v>
+      </c>
       <c r="C15">
-        <v>10.9</v>
+        <v>2.2472953600536898</v>
       </c>
       <c r="D15">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.6415218645298</v>
+      </c>
+      <c r="E15" s="2">
+        <v>122.15484930500099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
+      <c r="B16" s="1">
+        <v>44197.465278530093</v>
+      </c>
       <c r="C16">
-        <v>13.2</v>
+        <v>7.3641890613617997</v>
       </c>
       <c r="D16">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.381012185950802</v>
+      </c>
+      <c r="E16" s="2">
+        <v>92.037121481791701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
+      <c r="B17" s="1">
+        <v>44197.468750810185</v>
+      </c>
       <c r="C17">
-        <v>11.5</v>
+        <v>19.4434419318426</v>
       </c>
       <c r="D17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.189935597850301</v>
+      </c>
+      <c r="E17" s="2">
+        <v>115.354031097554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
+      <c r="B18" s="1">
+        <v>44197.472223090277</v>
+      </c>
       <c r="C18">
-        <v>12</v>
+        <v>1.5100131406617301</v>
       </c>
       <c r="D18">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20.554189037735998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>84.264772870569004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
+      <c r="B19" s="1">
+        <v>44197.475695370369</v>
+      </c>
       <c r="C19">
-        <v>18.399999999999999</v>
+        <v>10.344584942629099</v>
       </c>
       <c r="D19">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.452201155171899</v>
+      </c>
+      <c r="E19" s="2">
+        <v>102.327097850193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
+      <c r="B20" s="1">
+        <v>44197.479167650461</v>
+      </c>
       <c r="C20">
-        <v>11.5</v>
+        <v>4.2173038376152201</v>
       </c>
       <c r="D20">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32.648447222510597</v>
+      </c>
+      <c r="E20" s="2">
+        <v>94.356468777506606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
+      <c r="B21" s="1">
+        <v>44197.482639930553</v>
+      </c>
       <c r="C21">
-        <v>9.6999999999999993</v>
+        <v>2.4930812428342999</v>
       </c>
       <c r="D21">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.523602511176001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>104.714442032039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
+      <c r="B22" s="1">
+        <v>44197.486112210645</v>
+      </c>
       <c r="C22">
-        <v>9.6999999999999993</v>
+        <v>8.6134932781703704</v>
       </c>
       <c r="D22">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17.6035337450495</v>
+      </c>
+      <c r="E22" s="2">
+        <v>89.636230224595707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
+      <c r="B23" s="1">
+        <v>44197.489584490744</v>
+      </c>
       <c r="C23">
-        <v>16.600000000000001</v>
+        <v>3.08370428917797</v>
       </c>
       <c r="D23">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.411530424821002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>94.774215158495096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
+      <c r="B24" s="1">
+        <v>44197.493056770836</v>
+      </c>
       <c r="C24">
-        <v>9.6999999999999993</v>
+        <v>3.5650680039354499</v>
       </c>
       <c r="D24">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.368691021478099</v>
+      </c>
+      <c r="E24" s="2">
+        <v>75.650844204414895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
+      <c r="B25" s="1">
+        <v>44197.496529050928</v>
+      </c>
       <c r="C25">
-        <v>12</v>
+        <v>6.51316480754602</v>
       </c>
       <c r="D25">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.3954501681207</v>
+      </c>
+      <c r="E25" s="2">
+        <v>109.99867449278101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
+      <c r="B26" s="1">
+        <v>44197.50000133102</v>
+      </c>
       <c r="C26">
-        <v>16.600000000000001</v>
+        <v>5.9760771238188104</v>
       </c>
       <c r="D26">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.696805241153299</v>
+      </c>
+      <c r="E26" s="2">
+        <v>92.463232557797596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
+      <c r="B27" s="1">
+        <v>44197.503473611112</v>
+      </c>
       <c r="C27">
-        <v>14.9</v>
+        <v>31.541396335666999</v>
       </c>
       <c r="D27">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.8303666472681</v>
+      </c>
+      <c r="E27" s="2">
+        <v>77.941001068253698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="B28" s="1">
+        <v>44197.506945891204</v>
+      </c>
       <c r="C28">
-        <v>8</v>
+        <v>14.374727109516501</v>
       </c>
       <c r="D28">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12.928134338166601</v>
+      </c>
+      <c r="E28" s="2">
+        <v>70.207254926563095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
+      <c r="B29" s="1">
+        <v>44197.510418171296</v>
+      </c>
       <c r="C29">
-        <v>12</v>
+        <v>15.7159140967985</v>
       </c>
       <c r="D29">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.662698934285299</v>
+      </c>
+      <c r="E29" s="2">
+        <v>82.068515147390798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
+      <c r="B30" s="1">
+        <v>44197.513890451388</v>
+      </c>
       <c r="C30">
-        <v>14.9</v>
+        <v>8.1919072880898707</v>
       </c>
       <c r="D30">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.226047799004998</v>
+      </c>
+      <c r="E30" s="2">
+        <v>70.625946379558002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
+      <c r="B31" s="1">
+        <v>44197.51736273148</v>
+      </c>
       <c r="C31">
-        <v>5.7</v>
+        <v>13.1591217880838</v>
       </c>
       <c r="D31">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.684902633728399</v>
+      </c>
+      <c r="E31" s="2">
+        <v>118.730056089323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
+      <c r="B32" s="1">
+        <v>44197.520835011572</v>
+      </c>
       <c r="C32">
-        <v>7.4</v>
+        <v>17.171279078402701</v>
       </c>
       <c r="D32">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.7340095626439</v>
+      </c>
+      <c r="E32" s="2">
+        <v>81.301824138336102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
+      <c r="B33" s="1">
+        <v>44197.524307291664</v>
+      </c>
       <c r="C33">
-        <v>8.6</v>
+        <v>4.5262140238626696</v>
       </c>
       <c r="D33">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.857289912254199</v>
+      </c>
+      <c r="E33" s="2">
+        <v>109.82659914174199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
+      <c r="B34" s="1">
+        <v>44197.527779571756</v>
+      </c>
       <c r="C34">
-        <v>9.6999999999999993</v>
+        <v>33.504499802627997</v>
       </c>
       <c r="D34">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.124990080526199</v>
+      </c>
+      <c r="E34" s="2">
+        <v>84.699950584506396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
+      <c r="B35" s="1">
+        <v>44197.531251851855</v>
+      </c>
       <c r="C35">
-        <v>16.100000000000001</v>
+        <v>26.365124368781601</v>
       </c>
       <c r="D35">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.303895891042298</v>
+      </c>
+      <c r="E35" s="2">
+        <v>84.318676924173403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
+      <c r="B36" s="1">
+        <v>44197.534724131947</v>
+      </c>
       <c r="C36">
-        <v>9.1999999999999993</v>
+        <v>1.9326948779486</v>
       </c>
       <c r="D36">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.374335630313599</v>
+      </c>
+      <c r="E36" s="2">
+        <v>106.71844495455299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
+      <c r="B37" s="1">
+        <v>44197.538196412039</v>
+      </c>
       <c r="C37">
-        <v>8.6</v>
+        <v>6.0356006298633504</v>
       </c>
       <c r="D37">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.093647377019298</v>
+      </c>
+      <c r="E37" s="2">
+        <v>103.410377839169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
+      <c r="B38" s="1">
+        <v>44197.541668692131</v>
+      </c>
       <c r="C38">
-        <v>14.3</v>
+        <v>11.744676889868799</v>
       </c>
       <c r="D38">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.8835798558964</v>
+      </c>
+      <c r="E38" s="2">
+        <v>85.632210347957596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
+      <c r="B39" s="1">
+        <v>44197.545140972223</v>
+      </c>
       <c r="C39">
-        <v>9.6999999999999993</v>
+        <v>2.07348759985886</v>
       </c>
       <c r="D39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.009400749597098</v>
+      </c>
+      <c r="E39" s="2">
+        <v>116.99176123877599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
+      <c r="B40" s="1">
+        <v>44197.548613252315</v>
+      </c>
       <c r="C40">
-        <v>6.9</v>
+        <v>26.373689085403299</v>
       </c>
       <c r="D40">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.584672224519799</v>
+      </c>
+      <c r="E40" s="2">
+        <v>91.600617266049994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
+      <c r="B41" s="1">
+        <v>44197.552085532407</v>
+      </c>
       <c r="C41">
-        <v>13.8</v>
+        <v>34.698158445940997</v>
       </c>
       <c r="D41">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.8970070588723296</v>
+      </c>
+      <c r="E41" s="2">
+        <v>73.408372849527595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
+      <c r="B42" s="1">
+        <v>44197.555557812499</v>
+      </c>
       <c r="C42">
-        <v>11.5</v>
+        <v>41.208118946086699</v>
       </c>
       <c r="D42">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40.9214710525466</v>
+      </c>
+      <c r="E42" s="2">
+        <v>117.928371046465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
+      <c r="B43" s="1">
+        <v>44197.559030092591</v>
+      </c>
       <c r="C43">
-        <v>10.9</v>
+        <v>15.064874558920801</v>
       </c>
       <c r="D43">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.350673322556599</v>
+      </c>
+      <c r="E43" s="2">
+        <v>104.49817703852101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
+      <c r="B44" s="1">
+        <v>44197.562502372683</v>
+      </c>
       <c r="C44">
-        <v>9.1999999999999993</v>
+        <v>11.2815919486486</v>
       </c>
       <c r="D44">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.059664537720099</v>
+      </c>
+      <c r="E44" s="2">
+        <v>76.844300180768002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
+      <c r="B45" s="1">
+        <v>44197.565974652774</v>
+      </c>
       <c r="C45">
-        <v>8</v>
+        <v>13.7943344715835</v>
       </c>
       <c r="D45">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.424961086628601</v>
+      </c>
+      <c r="E45" s="2">
+        <v>77.946870838068094</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
+      <c r="B46" s="1">
+        <v>44197.569446932874</v>
+      </c>
       <c r="C46">
-        <v>13.8</v>
+        <v>1.3449813577760199</v>
       </c>
       <c r="D46">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.3203454365364404</v>
+      </c>
+      <c r="E46" s="2">
+        <v>112.010219321726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
+      <c r="B47" s="1">
+        <v>44197.572919212966</v>
+      </c>
       <c r="C47">
-        <v>11.5</v>
+        <v>21.587775520028799</v>
       </c>
       <c r="D47">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.8716367044306</v>
+      </c>
+      <c r="E47" s="2">
+        <v>120.687865225786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
+      <c r="B48" s="1">
+        <v>44197.416666666664</v>
+      </c>
       <c r="C48">
-        <v>14.9</v>
+        <v>39.042904598453497</v>
       </c>
       <c r="D48">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.774205817139404</v>
+      </c>
+      <c r="E48" s="2">
+        <v>79.726864275953005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
+      <c r="B49" s="1">
+        <v>44197.420138888891</v>
+      </c>
       <c r="C49">
-        <v>20.7</v>
+        <v>5.4811772949570399</v>
       </c>
       <c r="D49">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.206551569310498</v>
+      </c>
+      <c r="E49" s="2">
+        <v>81.629960104211094</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
+      <c r="B50" s="1">
+        <v>44197.423611168982</v>
+      </c>
       <c r="C50">
-        <v>9.1999999999999993</v>
+        <v>14.5840972299626</v>
       </c>
       <c r="D50">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.247767657096901</v>
+      </c>
+      <c r="E50" s="2">
+        <v>109.30269757972501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
+      <c r="B51" s="1">
+        <v>44197.427083449074</v>
+      </c>
       <c r="C51">
-        <v>11.5</v>
+        <v>8.5736185315975106</v>
       </c>
       <c r="D51">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.9081136462408193</v>
+      </c>
+      <c r="E51" s="2">
+        <v>106.156206395913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
+      <c r="B52" s="1">
+        <v>44197.430555729166</v>
+      </c>
       <c r="C52">
-        <v>10.3</v>
+        <v>5.6384038657190603</v>
       </c>
       <c r="D52">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.447510680942901</v>
+      </c>
+      <c r="E52" s="2">
+        <v>99.6056198759061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
+      <c r="B53" s="1">
+        <v>44197.434028009258</v>
+      </c>
       <c r="C53">
-        <v>6.3</v>
+        <v>20.457208631482299</v>
       </c>
       <c r="D53">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.2309771258689</v>
+      </c>
+      <c r="E53" s="2">
+        <v>80.978569735507904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
+      <c r="B54" s="1">
+        <v>44197.43750028935</v>
+      </c>
       <c r="C54">
-        <v>1.7</v>
+        <v>1.8852383677732201</v>
       </c>
       <c r="D54">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.647191846395</v>
+      </c>
+      <c r="E54" s="2">
+        <v>104.449152992788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
+      <c r="B55" s="1">
+        <v>44197.440972569442</v>
+      </c>
       <c r="C55">
-        <v>4.5999999999999996</v>
+        <v>5.2450566361077904</v>
       </c>
       <c r="D55">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.350254677586602</v>
+      </c>
+      <c r="E55" s="2">
+        <v>112.036143043339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
+      <c r="B56" s="1">
+        <v>44197.444444849534</v>
+      </c>
       <c r="C56">
-        <v>6.3</v>
+        <v>25.269892791224098</v>
       </c>
       <c r="D56">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.3411768394737</v>
+      </c>
+      <c r="E56" s="2">
+        <v>95.429036608148493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
+      <c r="B57" s="1">
+        <v>44197.447917129626</v>
+      </c>
       <c r="C57">
-        <v>8</v>
+        <v>9.4795721904396295</v>
       </c>
       <c r="D57">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.921624359627998</v>
+      </c>
+      <c r="E57" s="2">
+        <v>94.663103046978406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
+      <c r="B58" s="1">
+        <v>44197.451389409725</v>
+      </c>
       <c r="C58">
-        <v>8</v>
+        <v>2.98262779586255</v>
       </c>
       <c r="D58">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.832573196216799</v>
+      </c>
+      <c r="E58" s="2">
+        <v>83.838846672887499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
+      <c r="B59" s="1">
+        <v>44197.454861689817</v>
+      </c>
       <c r="C59">
-        <v>10.3</v>
+        <v>0.54064003831690099</v>
       </c>
       <c r="D59">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49.025886055820102</v>
+      </c>
+      <c r="E59" s="2">
+        <v>87.202855358293405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
+      <c r="B60" s="1">
+        <v>44197.458333969909</v>
+      </c>
       <c r="C60">
-        <v>11.5</v>
+        <v>22.441902945647101</v>
       </c>
       <c r="D60">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.8111902052816102</v>
+      </c>
+      <c r="E60" s="2">
+        <v>127.126159869033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
+      <c r="B61" s="1">
+        <v>44197.461806250001</v>
+      </c>
       <c r="C61">
-        <v>14.9</v>
+        <v>26.653653067460901</v>
       </c>
       <c r="D61">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.572908708987601</v>
+      </c>
+      <c r="E61" s="2">
+        <v>92.770991644293602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
+      <c r="B62" s="1">
+        <v>44197.465278530093</v>
+      </c>
       <c r="C62">
-        <v>8</v>
+        <v>4.6486800146372902</v>
       </c>
       <c r="D62">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.573117803624701</v>
+      </c>
+      <c r="E62" s="2">
+        <v>80.0313117276105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
+      <c r="B63" s="1">
+        <v>44197.468750810185</v>
+      </c>
       <c r="C63">
-        <v>4.0999999999999996</v>
+        <v>9.70711667865117</v>
       </c>
       <c r="D63">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.736953500435501</v>
+      </c>
+      <c r="E63" s="2">
+        <v>116.804413883359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
+      <c r="B64" s="1">
+        <v>44197.472223090277</v>
+      </c>
       <c r="C64">
-        <v>9.1999999999999993</v>
+        <v>12.5888090315004</v>
       </c>
       <c r="D64">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.541676736389501</v>
+      </c>
+      <c r="E64" s="2">
+        <v>116.036842492674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
+      <c r="B65" s="1">
+        <v>44197.475695370369</v>
+      </c>
       <c r="C65">
-        <v>9.1999999999999993</v>
+        <v>11.062418150327799</v>
       </c>
       <c r="D65">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.009894162534401</v>
+      </c>
+      <c r="E65" s="2">
+        <v>90.630157560999507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
+      <c r="B66" s="1">
+        <v>44197.479167650461</v>
+      </c>
       <c r="C66">
-        <v>10.9</v>
+        <v>39.349317727146897</v>
       </c>
       <c r="D66">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.273661840358699</v>
+      </c>
+      <c r="E66" s="2">
+        <v>113.88792125573499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
+      <c r="B67" s="1">
+        <v>44197.482639930553</v>
+      </c>
       <c r="C67">
-        <v>4.5999999999999996</v>
+        <v>1.0410326339664899</v>
       </c>
       <c r="D67">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38.817155710605803</v>
+      </c>
+      <c r="E67" s="2">
+        <v>105.45505653699701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
+      <c r="B68" s="1">
+        <v>44197.486112210645</v>
+      </c>
       <c r="C68">
-        <v>10.9</v>
+        <v>30.742646426179501</v>
       </c>
       <c r="D68">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35.756343674078003</v>
+      </c>
+      <c r="E68" s="2">
+        <v>96.163964026868399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
+      <c r="B69" s="1">
+        <v>44197.489584490744</v>
+      </c>
       <c r="C69">
-        <v>5.0999999999999996</v>
+        <v>12.181359921584299</v>
       </c>
       <c r="D69">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.018469206071799</v>
+      </c>
+      <c r="E69" s="2">
+        <v>121.16422569162999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
+      <c r="B70" s="1">
+        <v>44197.493056770836</v>
+      </c>
       <c r="C70">
-        <v>6.3</v>
+        <v>29.758479716014101</v>
       </c>
       <c r="D70">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.823107785315898</v>
+      </c>
+      <c r="E70" s="2">
+        <v>79.253237895387997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
+      <c r="B71" s="1">
+        <v>44197.496529050928</v>
+      </c>
       <c r="C71">
-        <v>5.7</v>
+        <v>25.767961506572199</v>
       </c>
       <c r="D71">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47.803725276584103</v>
+      </c>
+      <c r="E71" s="2">
+        <v>113.720502284045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
+      <c r="B72" s="1">
+        <v>44197.50000133102</v>
+      </c>
       <c r="C72">
-        <v>7.4</v>
+        <v>5.9481230163373899</v>
       </c>
       <c r="D72">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16.914965331158299</v>
+      </c>
+      <c r="E72" s="2">
+        <v>120.46078054884801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
+      <c r="B73" s="1">
+        <v>44197.503473611112</v>
+      </c>
       <c r="C73">
-        <v>8.6</v>
+        <v>27.434058910397798</v>
       </c>
       <c r="D73">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.857216050009399</v>
+      </c>
+      <c r="E73" s="2">
+        <v>94.078739722285704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
+      <c r="B74" s="1">
+        <v>44197.506945891204</v>
+      </c>
       <c r="C74">
-        <v>14.3</v>
+        <v>9.9081772190071398</v>
       </c>
       <c r="D74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.134034976525101</v>
+      </c>
+      <c r="E74" s="2">
+        <v>109.852642170981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
+      <c r="B75" s="1">
+        <v>44197.510418171296</v>
+      </c>
       <c r="C75">
-        <v>14.9</v>
+        <v>19.544776107670501</v>
       </c>
       <c r="D75">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.126985250492101</v>
+      </c>
+      <c r="E75" s="2">
+        <v>94.293022937214801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
+      <c r="B76" s="1">
+        <v>44197.513890451388</v>
+      </c>
       <c r="C76">
-        <v>14.9</v>
+        <v>1.05537536864899</v>
       </c>
       <c r="D76">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.387826004065701</v>
+      </c>
+      <c r="E76" s="2">
+        <v>93.263424833469202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
+      <c r="B77" s="1">
+        <v>44197.51736273148</v>
+      </c>
       <c r="C77">
-        <v>14.3</v>
+        <v>3.8101723927118698</v>
       </c>
       <c r="D77">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39.277102029569598</v>
+      </c>
+      <c r="E77" s="2">
+        <v>62.438490715104898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
+      <c r="B78" s="1">
+        <v>44197.520835011572</v>
+      </c>
       <c r="C78">
-        <v>6.9</v>
+        <v>5.7699101226878504</v>
       </c>
       <c r="D78">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.971700551075701</v>
+      </c>
+      <c r="E78" s="2">
+        <v>110.76325066194499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
+      <c r="B79" s="1">
+        <v>44197.524307291664</v>
+      </c>
       <c r="C79">
-        <v>10.3</v>
+        <v>2.8995026051437498</v>
       </c>
       <c r="D79">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.4118607250849</v>
+      </c>
+      <c r="E79" s="2">
+        <v>105.32005606366501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
+      <c r="B80" s="1">
+        <v>44197.527779571756</v>
+      </c>
       <c r="C80">
-        <v>6.3</v>
+        <v>8.3150934768111497</v>
       </c>
       <c r="D80">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.093625219815902</v>
+      </c>
+      <c r="E80" s="2">
+        <v>101.718105643475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
+      <c r="B81" s="1">
+        <v>44197.531251851855</v>
+      </c>
       <c r="C81">
-        <v>5.0999999999999996</v>
+        <v>2.8358051183944699</v>
       </c>
       <c r="D81">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.8942271083747</v>
+      </c>
+      <c r="E81" s="2">
+        <v>93.852688954009395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
+      <c r="B82" s="1">
+        <v>44197.534724131947</v>
+      </c>
       <c r="C82">
-        <v>11.5</v>
+        <v>0.15900261403190699</v>
       </c>
       <c r="D82">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.9050946983213</v>
+      </c>
+      <c r="E82" s="2">
+        <v>101.42611553322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
+      <c r="B83" s="1">
+        <v>44197.538196412039</v>
+      </c>
       <c r="C83">
-        <v>6.9</v>
+        <v>22.542801556003901</v>
       </c>
       <c r="D83">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.574433931264299</v>
+      </c>
+      <c r="E83" s="2">
+        <v>102.14160886834701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
+      <c r="B84" s="1">
+        <v>44197.541668692131</v>
+      </c>
       <c r="C84">
-        <v>9.6999999999999993</v>
+        <v>5.98176361771334</v>
       </c>
       <c r="D84">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.782006073432999</v>
+      </c>
+      <c r="E84" s="2">
+        <v>74.853023306851298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
+      <c r="B85" s="1">
+        <v>44197.545140972223</v>
+      </c>
       <c r="C85">
-        <v>11.5</v>
+        <v>0.701497561111461</v>
       </c>
       <c r="D85">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.7110349993823704</v>
+      </c>
+      <c r="E85" s="2">
+        <v>79.433613589046004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
+      <c r="B86" s="1">
+        <v>44197.548613252315</v>
+      </c>
       <c r="C86">
-        <v>8.6</v>
+        <v>6.94984067348667</v>
       </c>
       <c r="D86">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.1604247541426</v>
+      </c>
+      <c r="E86" s="2">
+        <v>127.54231476602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2</v>
       </c>
+      <c r="B87" s="1">
+        <v>44197.552085532407</v>
+      </c>
       <c r="C87">
-        <v>8</v>
+        <v>25.386209298950099</v>
       </c>
       <c r="D87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.2836409304055</v>
+      </c>
+      <c r="E87" s="2">
+        <v>82.440913043937897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
+      <c r="B88" s="1">
+        <v>44197.555557812499</v>
+      </c>
       <c r="C88">
-        <v>8.6</v>
+        <v>20.571713694006501</v>
       </c>
       <c r="D88">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.0631715655968</v>
+      </c>
+      <c r="E88" s="2">
+        <v>76.109626934180099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2</v>
       </c>
+      <c r="B89" s="1">
+        <v>44197.559030092591</v>
+      </c>
       <c r="C89">
-        <v>12</v>
+        <v>24.9156019812167</v>
       </c>
       <c r="D89">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.8005011613626</v>
+      </c>
+      <c r="E89" s="2">
+        <v>121.875402305945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2</v>
       </c>
+      <c r="B90" s="1">
+        <v>44197.562502372683</v>
+      </c>
       <c r="C90">
-        <v>7.4</v>
+        <v>1.5578297957926699</v>
       </c>
       <c r="D90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16.955322455330901</v>
+      </c>
+      <c r="E90" s="2">
+        <v>91.008063550759005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
+      <c r="B91" s="1">
+        <v>44197.565974652774</v>
+      </c>
       <c r="C91">
-        <v>7.4</v>
+        <v>1.66517096143534</v>
       </c>
       <c r="D91">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.289141209706901</v>
+      </c>
+      <c r="E91" s="2">
+        <v>73.231882281645497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
+      <c r="B92" s="1">
+        <v>44197.569446932874</v>
+      </c>
       <c r="C92">
-        <v>7.4</v>
+        <v>7.5488907021475802</v>
       </c>
       <c r="D92">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.0754772153674</v>
+      </c>
+      <c r="E92" s="2">
+        <v>97.703487113704199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
+      <c r="B93" s="1">
+        <v>44197.572919212966</v>
+      </c>
       <c r="C93">
-        <v>9.1999999999999993</v>
+        <v>15.2352431917624</v>
       </c>
       <c r="D93">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15.868909941849401</v>
+      </c>
+      <c r="E93" s="2">
+        <v>86.918831882929197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
+      <c r="B94" s="1">
+        <v>44197.576391493058</v>
+      </c>
       <c r="C94">
-        <v>6.9</v>
+        <v>17.572987778585301</v>
       </c>
       <c r="D94">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.5442733908341</v>
+      </c>
+      <c r="E94" s="2">
+        <v>89.887434565539195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
+      <c r="B95" s="1">
+        <v>44197.57986377315</v>
+      </c>
       <c r="C95">
-        <v>13.8</v>
+        <v>6.0094296213664897</v>
       </c>
       <c r="D95">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.468021274000201</v>
+      </c>
+      <c r="E95" s="2">
+        <v>66.559533651247193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
+      <c r="B96" s="1">
+        <v>44197.583336053242</v>
+      </c>
       <c r="C96">
-        <v>7.4</v>
+        <v>7.6462319423308003</v>
       </c>
       <c r="D96">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.8794399819114</v>
+      </c>
+      <c r="E96" s="2">
+        <v>108.241886090633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
+      <c r="B97" s="1">
+        <v>44197.586808333333</v>
+      </c>
       <c r="C97">
-        <v>6.9</v>
+        <v>5.7762039014741502</v>
       </c>
       <c r="D97">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.322361184192699</v>
+      </c>
+      <c r="E97" s="2">
+        <v>110.07552209723799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2</v>
       </c>
+      <c r="B98" s="1">
+        <v>44197.590280613425</v>
+      </c>
       <c r="C98">
-        <v>7.4</v>
+        <v>11.888085270845099</v>
       </c>
       <c r="D98">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.399405074860901</v>
+      </c>
+      <c r="E98" s="2">
+        <v>88.373585787093404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
+      <c r="B99" s="1">
+        <v>44197.593752893517</v>
+      </c>
       <c r="C99">
-        <v>4.5999999999999996</v>
+        <v>13.045091281430601</v>
       </c>
       <c r="D99">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.398356497306299</v>
+      </c>
+      <c r="E99" s="2">
+        <v>130.50579548062399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2</v>
       </c>
+      <c r="B100" s="1">
+        <v>44197.597225173609</v>
+      </c>
       <c r="C100">
-        <v>4</v>
+        <v>2.8097531642198099</v>
       </c>
       <c r="D100">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.0361226083409392</v>
+      </c>
+      <c r="E100" s="2">
+        <v>86.354398944912603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2</v>
       </c>
+      <c r="B101" s="1">
+        <v>44197.600697453701</v>
+      </c>
       <c r="C101">
-        <v>10.3</v>
+        <v>8.2470973672092196</v>
       </c>
       <c r="D101">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27.5302406531023</v>
+      </c>
+      <c r="E101" s="2">
+        <v>93.194606342739107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
+      <c r="B102" s="1">
+        <v>44197.444444849534</v>
+      </c>
       <c r="C102">
-        <v>8</v>
+        <v>26.4533469624016</v>
       </c>
       <c r="D102">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.088817967689</v>
+      </c>
+      <c r="E102" s="2">
+        <v>123.304253318386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
+      <c r="B103" s="1">
+        <v>44197.447917129626</v>
+      </c>
       <c r="C103">
-        <v>8.6</v>
+        <v>15.4629502666589</v>
       </c>
       <c r="D103">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.0859266038524</v>
+      </c>
+      <c r="E103" s="2">
+        <v>103.05356022144301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
+      <c r="B104" s="1">
+        <v>44197.451389351852</v>
+      </c>
       <c r="C104">
-        <v>11.5</v>
+        <v>6.5372153012657099</v>
       </c>
       <c r="D104">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34.604946277601499</v>
+      </c>
+      <c r="E104" s="2">
+        <v>78.682589945082199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
+      <c r="B105" s="1">
+        <v>44197.454861631944</v>
+      </c>
       <c r="C105">
-        <v>11.5</v>
+        <v>18.5916117399798</v>
       </c>
       <c r="D105">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.786479323879401</v>
+      </c>
+      <c r="E105" s="2">
+        <v>105.98592862167401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
+      <c r="B106" s="1">
+        <v>44197.458333912036</v>
+      </c>
       <c r="C106">
-        <v>11.5</v>
+        <v>8.3191402032787707</v>
       </c>
       <c r="D106">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.420464216053201</v>
+      </c>
+      <c r="E106" s="2">
+        <v>93.982321999767095</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
+      <c r="B107" s="1">
+        <v>44197.461806192128</v>
+      </c>
       <c r="C107">
-        <v>9.6999999999999993</v>
+        <v>20.109813971272601</v>
       </c>
       <c r="D107">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43.359852440202197</v>
+      </c>
+      <c r="E107" s="2">
+        <v>119.87808441252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
+      <c r="B108" s="1">
+        <v>44197.46527847222</v>
+      </c>
       <c r="C108">
-        <v>11.5</v>
+        <v>27.6297823115958</v>
       </c>
       <c r="D108">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13.3971530419541</v>
+      </c>
+      <c r="E108" s="2">
+        <v>107.49272140753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
+      <c r="B109" s="1">
+        <v>44197.468750752312</v>
+      </c>
       <c r="C109">
-        <v>10.3</v>
+        <v>14.046131441620799</v>
       </c>
       <c r="D109">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.045043459950001</v>
+      </c>
+      <c r="E109" s="2">
+        <v>106.909644347762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
+      <c r="B110" s="1">
+        <v>44197.472223032404</v>
+      </c>
       <c r="C110">
-        <v>6.3</v>
+        <v>2.2374377879501601</v>
       </c>
       <c r="D110">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.346656974217399</v>
+      </c>
+      <c r="E110" s="2">
+        <v>83.231260716943495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
+      <c r="B111" s="1">
+        <v>44197.475695312503</v>
+      </c>
       <c r="C111">
-        <v>7.4</v>
+        <v>31.118018118530799</v>
       </c>
       <c r="D111">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.719039350617201</v>
+      </c>
+      <c r="E111" s="2">
+        <v>78.5639087849937</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
+      <c r="B112" s="1">
+        <v>44197.479167592595</v>
+      </c>
       <c r="C112">
-        <v>10.9</v>
+        <v>16.538474786172301</v>
       </c>
       <c r="D112">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.650678299509298</v>
+      </c>
+      <c r="E112" s="2">
+        <v>114.322167274411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3</v>
       </c>
+      <c r="B113" s="1">
+        <v>44197.482639872687</v>
+      </c>
       <c r="C113">
-        <v>10.3</v>
+        <v>33.692641827386097</v>
       </c>
       <c r="D113">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15.0782044679216</v>
+      </c>
+      <c r="E113" s="2">
+        <v>87.0953093559568</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
+      <c r="B114" s="1">
+        <v>44197.486112152779</v>
+      </c>
       <c r="C114">
-        <v>15.5</v>
+        <v>3.0927089169928998</v>
       </c>
       <c r="D114">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.644129121869899</v>
+      </c>
+      <c r="E114" s="2">
+        <v>103.52996226349001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
+      <c r="B115" s="1">
+        <v>44197.489584432871</v>
+      </c>
       <c r="C115">
-        <v>14.3</v>
+        <v>0.40503111979078399</v>
       </c>
       <c r="D115">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.524554956331201</v>
+      </c>
+      <c r="E115" s="2">
+        <v>82.783292124414501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
+      <c r="B116" s="1">
+        <v>44197.493056712963</v>
+      </c>
       <c r="C116">
-        <v>12.6</v>
+        <v>21.417595803004701</v>
       </c>
       <c r="D116">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.2615284156731</v>
+      </c>
+      <c r="E116" s="2">
+        <v>70.441457837915607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
+      <c r="B117" s="1">
+        <v>44197.496528993055</v>
+      </c>
       <c r="C117">
-        <v>9.6999999999999993</v>
+        <v>7.7909993550255603</v>
       </c>
       <c r="D117">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.250811904861798</v>
+      </c>
+      <c r="E117" s="2">
+        <v>89.716413383378693</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
+      <c r="B118" s="1">
+        <v>44197.500001273147</v>
+      </c>
       <c r="C118">
-        <v>3.4</v>
+        <v>9.3059352390920598</v>
       </c>
       <c r="D118">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.7081177066395</v>
+      </c>
+      <c r="E118" s="2">
+        <v>89.440009374112194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
+      <c r="B119" s="1">
+        <v>44197.503473553239</v>
+      </c>
       <c r="C119">
-        <v>8</v>
+        <v>2.8034219775615101</v>
       </c>
       <c r="D119">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.1360827681565</v>
+      </c>
+      <c r="E119" s="2">
+        <v>93.096943153057893</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
+      <c r="B120" s="1">
+        <v>44197.506945833331</v>
+      </c>
       <c r="C120">
-        <v>5.7</v>
+        <v>21.510609165832602</v>
       </c>
       <c r="D120">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29.0291891334364</v>
+      </c>
+      <c r="E120" s="2">
+        <v>82.659254347652904</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3</v>
       </c>
+      <c r="B121" s="1">
+        <v>44197.510418113423</v>
+      </c>
       <c r="C121">
-        <v>9.6999999999999993</v>
+        <v>0.100846113403475</v>
       </c>
       <c r="D121">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30.683285262232602</v>
+      </c>
+      <c r="E121" s="2">
+        <v>108.79035317701</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
+      <c r="B122" s="1">
+        <v>44197.513890393515</v>
+      </c>
       <c r="C122">
-        <v>2.2999999999999998</v>
+        <v>13.371303597477899</v>
       </c>
       <c r="D122">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25.077158732381999</v>
+      </c>
+      <c r="E122" s="2">
+        <v>67.278883597999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
+      <c r="B123" s="1">
+        <v>44197.517362673614</v>
+      </c>
       <c r="C123">
-        <v>6.3</v>
+        <v>20.003612389801699</v>
       </c>
       <c r="D123">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.378637252173402</v>
+      </c>
+      <c r="E123" s="2">
+        <v>81.485428951432297</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
+      <c r="B124" s="1">
+        <v>44197.520834953706</v>
+      </c>
       <c r="C124">
-        <v>6.3</v>
+        <v>7.3871133427271296</v>
       </c>
       <c r="D124">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.7571397473272</v>
+      </c>
+      <c r="E124" s="2">
+        <v>108.588350090611</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3</v>
       </c>
+      <c r="B125" s="1">
+        <v>44197.524307233798</v>
+      </c>
       <c r="C125">
-        <v>6.9</v>
+        <v>8.0276866094904893</v>
       </c>
       <c r="D125">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.597438364193401</v>
+      </c>
+      <c r="E125" s="2">
+        <v>128.62560137578299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
+      <c r="B126" s="1">
+        <v>44197.52777951389</v>
+      </c>
       <c r="C126">
-        <v>5.0999999999999996</v>
+        <v>20.951259457407399</v>
       </c>
       <c r="D126">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20.414883254183799</v>
+      </c>
+      <c r="E126" s="2">
+        <v>99.239812908015793</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
+      <c r="B127" s="1">
+        <v>44197.531251793982</v>
+      </c>
       <c r="C127">
-        <v>2.8</v>
+        <v>19.366654237485399</v>
       </c>
       <c r="D127">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26.322107379078101</v>
+      </c>
+      <c r="E127" s="2">
+        <v>92.630146415555004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3</v>
       </c>
+      <c r="B128" s="1">
+        <v>44197.534724074074</v>
+      </c>
       <c r="C128">
-        <v>4.5999999999999996</v>
+        <v>7.9159954964812096</v>
       </c>
       <c r="D128">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.4933397225867</v>
+      </c>
+      <c r="E128" s="2">
+        <v>81.683942097882294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
+      <c r="B129" s="1">
+        <v>44197.538196354166</v>
+      </c>
       <c r="C129">
-        <v>7.4</v>
+        <v>4.4392151757878997</v>
       </c>
       <c r="D129">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.2274961363379404</v>
+      </c>
+      <c r="E129" s="2">
+        <v>104.768593213145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
+      <c r="B130" s="1">
+        <v>44197.541668634258</v>
+      </c>
       <c r="C130">
-        <v>15.5</v>
+        <v>10.900642577917701</v>
       </c>
       <c r="D130">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28.498599208483402</v>
+      </c>
+      <c r="E130" s="2">
+        <v>79.227471109163801</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
+      <c r="B131" s="1">
+        <v>44197.54514091435</v>
+      </c>
       <c r="C131">
-        <v>10.9</v>
+        <v>2.1032377475513502</v>
       </c>
       <c r="D131">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17.249676086603699</v>
+      </c>
+      <c r="E131" s="2">
+        <v>80.272433425308805</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3</v>
       </c>
+      <c r="B132" s="1">
+        <v>44197.548613194442</v>
+      </c>
       <c r="C132">
-        <v>10.3</v>
+        <v>3.44547151574392</v>
       </c>
       <c r="D132">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19.3641402981354</v>
+      </c>
+      <c r="E132" s="2">
+        <v>89.660473945618094</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3</v>
       </c>
+      <c r="B133" s="1">
+        <v>44197.552085474534</v>
+      </c>
       <c r="C133">
-        <v>10.9</v>
+        <v>17.472586928883899</v>
       </c>
       <c r="D133">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17.6222771825705</v>
+      </c>
+      <c r="E133" s="2">
+        <v>116.480208748134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3</v>
       </c>
+      <c r="B134" s="1">
+        <v>44197.555557754633</v>
+      </c>
       <c r="C134">
-        <v>9.6999999999999993</v>
+        <v>12.684985248639199</v>
       </c>
       <c r="D134">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.1917275051555301</v>
+      </c>
+      <c r="E134" s="2">
+        <v>84.151550910044406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3</v>
       </c>
+      <c r="B135" s="1">
+        <v>44197.559030034725</v>
+      </c>
       <c r="C135">
-        <v>14.9</v>
+        <v>10.668606469752399</v>
       </c>
       <c r="D135">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33.3394440091799</v>
+      </c>
+      <c r="E135" s="2">
+        <v>89.719004072558903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3</v>
       </c>
+      <c r="B136" s="1">
+        <v>44197.562502314817</v>
+      </c>
       <c r="C136">
-        <v>15.5</v>
+        <v>11.6403818926666</v>
       </c>
       <c r="D136">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15.0993365406884</v>
+      </c>
+      <c r="E136" s="2">
+        <v>97.732639706881699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3</v>
       </c>
+      <c r="B137" s="1">
+        <v>44197.565974594909</v>
+      </c>
       <c r="C137">
-        <v>6.3</v>
+        <v>38.468274079536798</v>
       </c>
       <c r="D137">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10.0816850354992</v>
+      </c>
+      <c r="E137" s="2">
+        <v>103.438690682599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3</v>
       </c>
+      <c r="B138" s="1">
+        <v>44197.569446875001</v>
+      </c>
       <c r="C138">
-        <v>10.9</v>
+        <v>22.891759873909098</v>
       </c>
       <c r="D138">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20.6570739007295</v>
+      </c>
+      <c r="E138" s="2">
+        <v>88.581621767631901</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3</v>
       </c>
+      <c r="B139" s="1">
+        <v>44197.572919155093</v>
+      </c>
       <c r="C139">
-        <v>11.5</v>
+        <v>22.4212221292889</v>
       </c>
       <c r="D139">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31.094255761957101</v>
+      </c>
+      <c r="E139" s="2">
+        <v>92.330638639706393</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3</v>
       </c>
+      <c r="B140" s="1">
+        <v>44197.576391435185</v>
+      </c>
       <c r="C140">
-        <v>6.9</v>
+        <v>1.13623427047744</v>
       </c>
       <c r="D140">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44.768900593446297</v>
+      </c>
+      <c r="E140" s="2">
+        <v>115.88873910302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
+      <c r="B141" s="1">
+        <v>44197.579863715277</v>
+      </c>
       <c r="C141">
-        <v>13.8</v>
+        <v>27.157337053093801</v>
       </c>
       <c r="D141">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.9756155025470301</v>
+      </c>
+      <c r="E141" s="2">
+        <v>85.356610556022105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
+      <c r="B142" s="1">
+        <v>44197.583335995369</v>
+      </c>
       <c r="C142">
-        <v>10.3</v>
+        <v>2.9882179539504099</v>
       </c>
       <c r="D142">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24.462790641796499</v>
+      </c>
+      <c r="E142" s="2">
+        <v>110.40847139142301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3</v>
       </c>
+      <c r="B143" s="1">
+        <v>44197.58680827546</v>
+      </c>
       <c r="C143">
-        <v>10.3</v>
+        <v>13.661076950781901</v>
       </c>
       <c r="D143">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23.666613312722799</v>
+      </c>
+      <c r="E143" s="2">
+        <v>103.25490306383401</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
+      <c r="B144" s="1">
+        <v>44197.590280555552</v>
+      </c>
       <c r="C144">
-        <v>8</v>
+        <v>3.3472547895747602</v>
       </c>
       <c r="D144">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11.5921836642793</v>
+      </c>
+      <c r="E144" s="2">
+        <v>98.196403313924193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3</v>
       </c>
+      <c r="B145" s="1">
+        <v>44197.593752835652</v>
+      </c>
       <c r="C145">
-        <v>12.6</v>
+        <v>18.802869104083499</v>
       </c>
       <c r="D145">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14.8321549021945</v>
+      </c>
+      <c r="E145" s="2">
+        <v>76.617419722684104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
+      <c r="B146" s="1">
+        <v>44197.597225115744</v>
+      </c>
       <c r="C146">
-        <v>9.1999999999999993</v>
+        <v>18.233336875530998</v>
       </c>
       <c r="D146">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.6735616858642</v>
+      </c>
+      <c r="E146" s="2">
+        <v>114.918211438035</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3</v>
       </c>
+      <c r="B147" s="1">
+        <v>44197.600697395836</v>
+      </c>
       <c r="C147">
-        <v>10.3</v>
+        <v>12.5405470838362</v>
       </c>
       <c r="D147">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13.4155163138327</v>
+      </c>
+      <c r="E147" s="2">
+        <v>65.935568446979701</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3</v>
       </c>
+      <c r="B148" s="1">
+        <v>44197.604169675928</v>
+      </c>
       <c r="C148">
-        <v>10.3</v>
+        <v>13.184560278994599</v>
       </c>
       <c r="D148">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.9299313294032903</v>
+      </c>
+      <c r="E148" s="2">
+        <v>96.723489488794897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3</v>
       </c>
+      <c r="B149" s="1">
+        <v>44197.60764195602</v>
+      </c>
       <c r="C149">
-        <v>16.600000000000001</v>
+        <v>38.429146500142103</v>
       </c>
       <c r="D149">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18.2885244778087</v>
+      </c>
+      <c r="E149" s="2">
+        <v>111.051487723333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3</v>
       </c>
+      <c r="B150" s="1">
+        <v>44197.611114236111</v>
+      </c>
       <c r="C150">
-        <v>6.9</v>
+        <v>9.9985102475000396</v>
       </c>
       <c r="D150">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36.096880589045597</v>
+      </c>
+      <c r="E150" s="2">
+        <v>81.254940414167706</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3</v>
       </c>
+      <c r="B151" s="1">
+        <v>44197.614586516203</v>
+      </c>
       <c r="C151">
-        <v>13.2</v>
+        <v>11.8686309489214</v>
       </c>
       <c r="D151">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17.284035722846902</v>
+      </c>
+      <c r="E151" s="2">
+        <v>81.638639506458503</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3</v>
       </c>
+      <c r="B152" s="1">
+        <v>44197.618058796295</v>
+      </c>
       <c r="C152">
-        <v>14.3</v>
+        <v>25.448158191668501</v>
       </c>
       <c r="D152">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.844332519974699</v>
+      </c>
+      <c r="E152" s="2">
+        <v>72.152061884534902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3</v>
       </c>
+      <c r="B153" s="1">
+        <v>44197.621531076387</v>
+      </c>
       <c r="C153">
-        <v>8</v>
+        <v>6.9356083906359096</v>
       </c>
       <c r="D153">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11.3805540946004</v>
+      </c>
+      <c r="E153" s="2">
+        <v>118.499522768305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3</v>
       </c>
+      <c r="B154" s="1">
+        <v>44197.625003356479</v>
+      </c>
       <c r="C154">
-        <v>11.5</v>
+        <v>1.78057980949308</v>
       </c>
       <c r="D154">
-        <v>68</v>
-      </c>
+        <v>25.0122907361174</v>
+      </c>
+      <c r="E154" s="2">
+        <v>84.247853056116995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>